--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H2">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I2">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J2">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.405011</v>
+        <v>1.521496</v>
       </c>
       <c r="N2">
-        <v>4.215033</v>
+        <v>4.564488</v>
       </c>
       <c r="O2">
-        <v>0.04245885300950829</v>
+        <v>0.03673310907796454</v>
       </c>
       <c r="P2">
-        <v>0.05276971215004659</v>
+        <v>0.04709307785339354</v>
       </c>
       <c r="Q2">
-        <v>3.650917805141</v>
+        <v>5.185759954514667</v>
       </c>
       <c r="R2">
-        <v>32.858260246269</v>
+        <v>46.671839590632</v>
       </c>
       <c r="S2">
-        <v>0.02112537064827275</v>
+        <v>0.02370178368772598</v>
       </c>
       <c r="T2">
-        <v>0.0289212609109787</v>
+        <v>0.03128120133461097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H3">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I3">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J3">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.765053</v>
       </c>
       <c r="O3">
-        <v>0.3602683841868553</v>
+        <v>0.2878223347346259</v>
       </c>
       <c r="P3">
-        <v>0.4477572421950576</v>
+        <v>0.3689978865887579</v>
       </c>
       <c r="Q3">
-        <v>30.97846892290323</v>
+        <v>40.63303038993523</v>
       </c>
       <c r="R3">
-        <v>278.806220306129</v>
+        <v>365.6972735094171</v>
       </c>
       <c r="S3">
-        <v>0.1792512658572588</v>
+        <v>0.1857153638668905</v>
       </c>
       <c r="T3">
-        <v>0.2454003158001329</v>
+        <v>0.2451039029209919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H4">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I4">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J4">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1483576666666666</v>
+        <v>0.108844</v>
       </c>
       <c r="N4">
-        <v>0.4450729999999999</v>
+        <v>0.326532</v>
       </c>
       <c r="O4">
-        <v>0.00448330750565912</v>
+        <v>0.002627794305395461</v>
       </c>
       <c r="P4">
-        <v>0.00557204987381064</v>
+        <v>0.003368920434805459</v>
       </c>
       <c r="Q4">
-        <v>0.3855070506654444</v>
+        <v>0.3709762342386667</v>
       </c>
       <c r="R4">
-        <v>3.469563455989</v>
+        <v>3.338786108148</v>
       </c>
       <c r="S4">
-        <v>0.002230666305705957</v>
+        <v>0.001695566037443967</v>
       </c>
       <c r="T4">
-        <v>0.003053848536282402</v>
+        <v>0.002237778527228726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H5">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I5">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J5">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.39737</v>
+        <v>27.3360495</v>
       </c>
       <c r="N5">
-        <v>38.79474</v>
+        <v>54.672099</v>
       </c>
       <c r="O5">
-        <v>0.5861805221461226</v>
+        <v>0.659967616112128</v>
       </c>
       <c r="P5">
-        <v>0.4856871257558123</v>
+        <v>0.5640670792902598</v>
       </c>
       <c r="Q5">
-        <v>50.40402068447001</v>
+        <v>93.17026848031851</v>
       </c>
       <c r="R5">
-        <v>302.42412410682</v>
+        <v>559.0216108819111</v>
       </c>
       <c r="S5">
-        <v>0.291653681609387</v>
+        <v>0.4258395238146994</v>
       </c>
       <c r="T5">
-        <v>0.2661883780064313</v>
+        <v>0.3746770582384669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H6">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I6">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J6">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.218697</v>
+        <v>0.5322153333333334</v>
       </c>
       <c r="N6">
-        <v>0.656091</v>
+        <v>1.596646</v>
       </c>
       <c r="O6">
-        <v>0.006608933151854636</v>
+        <v>0.01284914576988608</v>
       </c>
       <c r="P6">
-        <v>0.008213870025272926</v>
+        <v>0.0164730358327833</v>
       </c>
       <c r="Q6">
-        <v>0.5682836442070001</v>
+        <v>1.813965309654889</v>
       </c>
       <c r="R6">
-        <v>5.114552797863</v>
+        <v>16.325687786894</v>
       </c>
       <c r="S6">
-        <v>0.003288269760639102</v>
+        <v>0.008290822128982031</v>
       </c>
       <c r="T6">
-        <v>0.004501739130475355</v>
+        <v>0.01094208265770471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.649123</v>
       </c>
       <c r="I7">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J7">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.405011</v>
+        <v>1.521496</v>
       </c>
       <c r="N7">
-        <v>4.215033</v>
+        <v>4.564488</v>
       </c>
       <c r="O7">
-        <v>0.04245885300950829</v>
+        <v>0.03673310907796454</v>
       </c>
       <c r="P7">
-        <v>0.05276971215004659</v>
+        <v>0.04709307785339354</v>
       </c>
       <c r="Q7">
-        <v>1.240682318451</v>
+        <v>1.343543349336</v>
       </c>
       <c r="R7">
-        <v>11.166140866059</v>
+        <v>12.091890144024</v>
       </c>
       <c r="S7">
-        <v>0.007178982171860619</v>
+        <v>0.006140734264670573</v>
       </c>
       <c r="T7">
-        <v>0.009828240172658051</v>
+        <v>0.008104434139063485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.649123</v>
       </c>
       <c r="I8">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J8">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.765053</v>
       </c>
       <c r="O8">
-        <v>0.3602683841868553</v>
+        <v>0.2878223347346259</v>
       </c>
       <c r="P8">
-        <v>0.4477572421950576</v>
+        <v>0.3689978865887579</v>
       </c>
       <c r="Q8">
         <v>10.527336055391</v>
@@ -948,10 +948,10 @@
         <v>94.74602449851901</v>
       </c>
       <c r="S8">
-        <v>0.06091451190599222</v>
+        <v>0.04811573311943401</v>
       </c>
       <c r="T8">
-        <v>0.08339377904558383</v>
+        <v>0.06350230661546595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.649123</v>
       </c>
       <c r="I9">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J9">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1483576666666666</v>
+        <v>0.108844</v>
       </c>
       <c r="N9">
-        <v>0.4450729999999999</v>
+        <v>0.326532</v>
       </c>
       <c r="O9">
-        <v>0.00448330750565912</v>
+        <v>0.002627794305395461</v>
       </c>
       <c r="P9">
-        <v>0.00557204987381064</v>
+        <v>0.003368920434805459</v>
       </c>
       <c r="Q9">
-        <v>0.131005902331</v>
+        <v>0.09611371460399999</v>
       </c>
       <c r="R9">
-        <v>1.179053120979</v>
+        <v>0.8650234314359999</v>
       </c>
       <c r="S9">
-        <v>0.0007580417833446429</v>
+        <v>0.0004392926963355828</v>
       </c>
       <c r="T9">
-        <v>0.001037781753634061</v>
+        <v>0.000579770850158151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.649123</v>
       </c>
       <c r="I10">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J10">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.39737</v>
+        <v>27.3360495</v>
       </c>
       <c r="N10">
-        <v>38.79474</v>
+        <v>54.672099</v>
       </c>
       <c r="O10">
-        <v>0.5861805221461226</v>
+        <v>0.659967616112128</v>
       </c>
       <c r="P10">
-        <v>0.4856871257558123</v>
+        <v>0.5640670792902598</v>
       </c>
       <c r="Q10">
-        <v>17.12867300217</v>
+        <v>24.1388524865295</v>
       </c>
       <c r="R10">
-        <v>102.77203801302</v>
+        <v>144.833114919177</v>
       </c>
       <c r="S10">
-        <v>0.09911194532354838</v>
+        <v>0.1103278719269593</v>
       </c>
       <c r="T10">
-        <v>0.09045813452844242</v>
+        <v>0.09707253597552642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.649123</v>
       </c>
       <c r="I11">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J11">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.218697</v>
+        <v>0.5322153333333334</v>
       </c>
       <c r="N11">
-        <v>0.656091</v>
+        <v>1.596646</v>
       </c>
       <c r="O11">
-        <v>0.006608933151854636</v>
+        <v>0.01284914576988608</v>
       </c>
       <c r="P11">
-        <v>0.008213870025272926</v>
+        <v>0.0164730358327833</v>
       </c>
       <c r="Q11">
-        <v>0.193118417577</v>
+        <v>0.469967960162</v>
       </c>
       <c r="R11">
-        <v>1.738065758193</v>
+        <v>4.229711641458</v>
       </c>
       <c r="S11">
-        <v>0.001117444535337732</v>
+        <v>0.002148012833147817</v>
       </c>
       <c r="T11">
-        <v>0.001529814813577828</v>
+        <v>0.002834909928648987</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H12">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I12">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J12">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.405011</v>
+        <v>1.521496</v>
       </c>
       <c r="N12">
-        <v>4.215033</v>
+        <v>4.564488</v>
       </c>
       <c r="O12">
-        <v>0.04245885300950829</v>
+        <v>0.03673310907796454</v>
       </c>
       <c r="P12">
-        <v>0.05276971215004659</v>
+        <v>0.04709307785339354</v>
       </c>
       <c r="Q12">
-        <v>0.359164366941</v>
+        <v>0.310657531784</v>
       </c>
       <c r="R12">
-        <v>3.232479302469</v>
+        <v>2.795917786056</v>
       </c>
       <c r="S12">
-        <v>0.002078239166216407</v>
+        <v>0.00141987629274991</v>
       </c>
       <c r="T12">
-        <v>0.002845171247514838</v>
+        <v>0.001873928003433412</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H13">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I13">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J13">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.765053</v>
       </c>
       <c r="O13">
-        <v>0.3602683841868553</v>
+        <v>0.2878223347346259</v>
       </c>
       <c r="P13">
-        <v>0.4477572421950576</v>
+        <v>0.3689978865887579</v>
       </c>
       <c r="Q13">
-        <v>3.047552087814333</v>
+        <v>2.434157585495667</v>
       </c>
       <c r="R13">
-        <v>27.427968790329</v>
+        <v>21.907418269461</v>
       </c>
       <c r="S13">
-        <v>0.01763410486380666</v>
+        <v>0.01112544295518885</v>
       </c>
       <c r="T13">
-        <v>0.02414161418462069</v>
+        <v>0.01468316585802837</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H14">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I14">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J14">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1483576666666666</v>
+        <v>0.108844</v>
       </c>
       <c r="N14">
-        <v>0.4450729999999999</v>
+        <v>0.326532</v>
       </c>
       <c r="O14">
-        <v>0.00448330750565912</v>
+        <v>0.002627794305395461</v>
       </c>
       <c r="P14">
-        <v>0.00557204987381064</v>
+        <v>0.003368920434805459</v>
       </c>
       <c r="Q14">
-        <v>0.03792481868766666</v>
+        <v>0.022223659076</v>
       </c>
       <c r="R14">
-        <v>0.3413233681889999</v>
+        <v>0.200012931684</v>
       </c>
       <c r="S14">
-        <v>0.000219445053081538</v>
+        <v>0.0001015743815350623</v>
       </c>
       <c r="T14">
-        <v>0.0003004268063014386</v>
+        <v>0.0001340560997897506</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H15">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I15">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J15">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.39737</v>
+        <v>27.3360495</v>
       </c>
       <c r="N15">
-        <v>38.79474</v>
+        <v>54.672099</v>
       </c>
       <c r="O15">
-        <v>0.5861805221461226</v>
+        <v>0.659967616112128</v>
       </c>
       <c r="P15">
-        <v>0.4856871257558123</v>
+        <v>0.5640670792902598</v>
       </c>
       <c r="Q15">
-        <v>4.95856909047</v>
+        <v>5.5814472508605</v>
       </c>
       <c r="R15">
-        <v>29.75141454282</v>
+        <v>33.488683505163</v>
       </c>
       <c r="S15">
-        <v>0.02869185654460438</v>
+        <v>0.02551029291071947</v>
       </c>
       <c r="T15">
-        <v>0.02618667014061665</v>
+        <v>0.02244536020745018</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H16">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I16">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J16">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.218697</v>
+        <v>0.5322153333333334</v>
       </c>
       <c r="N16">
-        <v>0.656091</v>
+        <v>1.596646</v>
       </c>
       <c r="O16">
-        <v>0.006608933151854636</v>
+        <v>0.01284914576988608</v>
       </c>
       <c r="P16">
-        <v>0.008213870025272926</v>
+        <v>0.0164730358327833</v>
       </c>
       <c r="Q16">
-        <v>0.055905732807</v>
+        <v>0.1086671945446667</v>
       </c>
       <c r="R16">
-        <v>0.5031515952629999</v>
+        <v>0.978004750902</v>
       </c>
       <c r="S16">
-        <v>0.0003234883363432952</v>
+        <v>0.0004966690247217153</v>
       </c>
       <c r="T16">
-        <v>0.0004428651564420155</v>
+        <v>0.000655495129129476</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H17">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I17">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J17">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.405011</v>
+        <v>1.521496</v>
       </c>
       <c r="N17">
-        <v>4.215033</v>
+        <v>4.564488</v>
       </c>
       <c r="O17">
-        <v>0.04245885300950829</v>
+        <v>0.03673310907796454</v>
       </c>
       <c r="P17">
-        <v>0.05276971215004659</v>
+        <v>0.04709307785339354</v>
       </c>
       <c r="Q17">
-        <v>2.0290192379355</v>
+        <v>0.689626430228</v>
       </c>
       <c r="R17">
-        <v>12.174115427613</v>
+        <v>4.137758581368</v>
       </c>
       <c r="S17">
-        <v>0.01174055011413985</v>
+        <v>0.00315197321472094</v>
       </c>
       <c r="T17">
-        <v>0.01071544159683092</v>
+        <v>0.002773279570573575</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H18">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I18">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J18">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.765053</v>
       </c>
       <c r="O18">
-        <v>0.3602683841868553</v>
+        <v>0.2878223347346259</v>
       </c>
       <c r="P18">
-        <v>0.4477572421950576</v>
+        <v>0.3689978865887579</v>
       </c>
       <c r="Q18">
-        <v>17.21646795713883</v>
+        <v>5.403568993347166</v>
       </c>
       <c r="R18">
-        <v>103.298807742833</v>
+        <v>32.421413960083</v>
       </c>
       <c r="S18">
-        <v>0.09961995483341829</v>
+        <v>0.02469729114833357</v>
       </c>
       <c r="T18">
-        <v>0.09092178795019221</v>
+        <v>0.02173003649596212</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H19">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I19">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J19">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1483576666666666</v>
+        <v>0.108844</v>
       </c>
       <c r="N19">
-        <v>0.4450729999999999</v>
+        <v>0.326532</v>
       </c>
       <c r="O19">
-        <v>0.00448330750565912</v>
+        <v>0.002627794305395461</v>
       </c>
       <c r="P19">
-        <v>0.00557204987381064</v>
+        <v>0.003368920434805459</v>
       </c>
       <c r="Q19">
-        <v>0.2142478313421666</v>
+        <v>0.04933414164199999</v>
       </c>
       <c r="R19">
-        <v>1.285486988053</v>
+        <v>0.296004849852</v>
       </c>
       <c r="S19">
-        <v>0.001239706038114189</v>
+        <v>0.000225484242208383</v>
       </c>
       <c r="T19">
-        <v>0.001131462965491926</v>
+        <v>0.0001983934506429923</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H20">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I20">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J20">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.39737</v>
+        <v>27.3360495</v>
       </c>
       <c r="N20">
-        <v>38.79474</v>
+        <v>54.672099</v>
       </c>
       <c r="O20">
-        <v>0.5861805221461226</v>
+        <v>0.659967616112128</v>
       </c>
       <c r="P20">
-        <v>0.4856871257558123</v>
+        <v>0.5640670792902598</v>
       </c>
       <c r="Q20">
-        <v>28.012333636785</v>
+        <v>12.39021478414725</v>
       </c>
       <c r="R20">
-        <v>112.04933454714</v>
+        <v>49.560859136589</v>
       </c>
       <c r="S20">
-        <v>0.1620882644815684</v>
+        <v>0.05663011655652446</v>
       </c>
       <c r="T20">
-        <v>0.09862384724727907</v>
+        <v>0.03321752959742166</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H21">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I21">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J21">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.218697</v>
+        <v>0.5322153333333334</v>
       </c>
       <c r="N21">
-        <v>0.656091</v>
+        <v>1.596646</v>
       </c>
       <c r="O21">
-        <v>0.006608933151854636</v>
+        <v>0.01284914576988608</v>
       </c>
       <c r="P21">
-        <v>0.008213870025272926</v>
+        <v>0.0164730358327833</v>
       </c>
       <c r="Q21">
-        <v>0.3158270079585</v>
+        <v>0.2412295270176667</v>
       </c>
       <c r="R21">
-        <v>1.894962047751</v>
+        <v>1.447377162106</v>
       </c>
       <c r="S21">
-        <v>0.001827475434933991</v>
+        <v>0.001102552011395655</v>
       </c>
       <c r="T21">
-        <v>0.001667912159336924</v>
+        <v>0.0009700859621578622</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H22">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I22">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J22">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.405011</v>
+        <v>1.521496</v>
       </c>
       <c r="N22">
-        <v>4.215033</v>
+        <v>4.564488</v>
       </c>
       <c r="O22">
-        <v>0.04245885300950829</v>
+        <v>0.03673310907796454</v>
       </c>
       <c r="P22">
-        <v>0.05276971215004659</v>
+        <v>0.04709307785339354</v>
       </c>
       <c r="Q22">
-        <v>0.058018055897</v>
+        <v>0.5073220474213334</v>
       </c>
       <c r="R22">
-        <v>0.5221625030729999</v>
+        <v>4.565898426792001</v>
       </c>
       <c r="S22">
-        <v>0.0003357109090186697</v>
+        <v>0.002318741618097143</v>
       </c>
       <c r="T22">
-        <v>0.0004595982220640763</v>
+        <v>0.003060234805712101</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H23">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I23">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J23">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.765053</v>
       </c>
       <c r="O23">
-        <v>0.3602683841868553</v>
+        <v>0.2878223347346259</v>
       </c>
       <c r="P23">
-        <v>0.4477572421950576</v>
+        <v>0.3689978865887579</v>
       </c>
       <c r="Q23">
-        <v>0.4922900589658889</v>
+        <v>3.975122711264112</v>
       </c>
       <c r="R23">
-        <v>4.430610530692999</v>
+        <v>35.776104401377</v>
       </c>
       <c r="S23">
-        <v>0.002848546726379343</v>
+        <v>0.01816850364477902</v>
       </c>
       <c r="T23">
-        <v>0.003899745214527967</v>
+        <v>0.02397847469830965</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H24">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I24">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J24">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1483576666666666</v>
+        <v>0.108844</v>
       </c>
       <c r="N24">
-        <v>0.4450729999999999</v>
+        <v>0.326532</v>
       </c>
       <c r="O24">
-        <v>0.00448330750565912</v>
+        <v>0.002627794305395461</v>
       </c>
       <c r="P24">
-        <v>0.00557204987381064</v>
+        <v>0.003368920434805459</v>
       </c>
       <c r="Q24">
-        <v>0.006126232034777777</v>
+        <v>0.03629254426533334</v>
       </c>
       <c r="R24">
-        <v>0.05513608831299999</v>
+        <v>0.326632898388</v>
       </c>
       <c r="S24">
-        <v>3.544832541279424E-05</v>
+        <v>0.0001658769478724659</v>
       </c>
       <c r="T24">
-        <v>4.852981210081264E-05</v>
+        <v>0.0002189215069858402</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H25">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I25">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J25">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.39737</v>
+        <v>27.3360495</v>
       </c>
       <c r="N25">
-        <v>38.79474</v>
+        <v>54.672099</v>
       </c>
       <c r="O25">
-        <v>0.5861805221461226</v>
+        <v>0.659967616112128</v>
       </c>
       <c r="P25">
-        <v>0.4856871257558123</v>
+        <v>0.5640670792902598</v>
       </c>
       <c r="Q25">
-        <v>0.8009885309900001</v>
+        <v>9.114832113098503</v>
       </c>
       <c r="R25">
-        <v>4.80593118594</v>
+        <v>54.68899267859101</v>
       </c>
       <c r="S25">
-        <v>0.004634774187014531</v>
+        <v>0.04165981090322525</v>
       </c>
       <c r="T25">
-        <v>0.004230095833042851</v>
+        <v>0.03665459527139468</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H26">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I26">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J26">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.218697</v>
+        <v>0.5322153333333334</v>
       </c>
       <c r="N26">
-        <v>0.656091</v>
+        <v>1.596646</v>
       </c>
       <c r="O26">
-        <v>0.006608933151854636</v>
+        <v>0.01284914576988608</v>
       </c>
       <c r="P26">
-        <v>0.008213870025272926</v>
+        <v>0.0164730358327833</v>
       </c>
       <c r="Q26">
-        <v>0.009030801018999999</v>
+        <v>0.1774599292904445</v>
       </c>
       <c r="R26">
-        <v>0.08127720917099999</v>
+        <v>1.597139363614</v>
       </c>
       <c r="S26">
-        <v>5.22550846005163E-05</v>
+        <v>0.0008110897716388632</v>
       </c>
       <c r="T26">
-        <v>7.153876544080245E-05</v>
+        <v>0.001070462155142264</v>
       </c>
     </row>
   </sheetData>
